--- a/data/extracted/Congressional Election Results by State (2014 - 114th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2014 - 114th).xlsx
@@ -1,32 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11221"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005A2682-CD88-884A-AF77-74622FB0E7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5975ED2-FE56-5540-B33D-B25BD10BD612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17500" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
     <sheet name="Uncontested Races" sheetId="4" r:id="rId2"/>
-    <sheet name="Uncontested PIVOT" sheetId="5" r:id="rId3"/>
-    <sheet name="RESULTS" sheetId="6" r:id="rId4"/>
-    <sheet name="UNCONTESTED" sheetId="7" r:id="rId5"/>
+    <sheet name="RESULTS" sheetId="6" r:id="rId3"/>
+    <sheet name="UNCONTESTED" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$N$2:$N$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$J$2:$J$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Uncontested Races'!$A$2:$J$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="169">
   <si>
     <t>State</t>
   </si>
@@ -548,36 +544,6 @@
     <t>26th</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of TOT1</t>
-  </si>
-  <si>
-    <t>Sum of REP2</t>
-  </si>
-  <si>
-    <t>Sum of DEM2</t>
-  </si>
-  <si>
-    <t>Uncontested</t>
-  </si>
-  <si>
-    <t>Contested</t>
-  </si>
-  <si>
-    <t>TOT3</t>
-  </si>
-  <si>
-    <t>REP3</t>
-  </si>
-  <si>
-    <t>DEM3</t>
-  </si>
-  <si>
-    <t>AVG Votes</t>
-  </si>
-  <si>
     <t>STATE</t>
   </si>
   <si>
@@ -615,7 +581,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -672,13 +638,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="11"/>
@@ -687,7 +646,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,14 +665,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -750,58 +703,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFE2EFDA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE2EFDA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFE2EFDA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE2EFDA"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -834,24 +743,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -859,14 +750,7 @@
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -877,1823 +761,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="42866.442106828705" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="107" xr:uid="{00000000-000A-0000-FFFF-FFFF11000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A2:J109" sheet="Uncontested Races"/>
-  </cacheSource>
-  <cacheFields count="10">
-    <cacheField name="State" numFmtId="0">
-      <sharedItems count="50">
-        <s v="Alabama"/>
-        <s v="Alaska"/>
-        <s v="Arizona"/>
-        <s v="Arkansas"/>
-        <s v="California"/>
-        <s v="Colorado"/>
-        <s v="Connecticut"/>
-        <s v="Delaware"/>
-        <s v="Florida"/>
-        <s v="Georgia"/>
-        <s v="Hawaiʻi"/>
-        <s v="Idaho"/>
-        <s v="Illinois"/>
-        <s v="Indiana"/>
-        <s v="Iowa"/>
-        <s v="Kansas"/>
-        <s v="Kentucky"/>
-        <s v="Louisiana"/>
-        <s v="Maine"/>
-        <s v="Maryland"/>
-        <s v="Massachusetts"/>
-        <s v="Michigan"/>
-        <s v="Minnesota"/>
-        <s v="Mississippi"/>
-        <s v="Missouri"/>
-        <s v="Montana"/>
-        <s v="Nebraska"/>
-        <s v="Nevada"/>
-        <s v="New Hampshire"/>
-        <s v="New Jersey"/>
-        <s v="New Mexico"/>
-        <s v="New York"/>
-        <s v="North Carolina"/>
-        <s v="North Dakota"/>
-        <s v="Ohio"/>
-        <s v="Oklahoma"/>
-        <s v="Oregon"/>
-        <s v="Pennsylvania"/>
-        <s v="Rhode Island"/>
-        <s v="South Carolina"/>
-        <s v="South Dakota"/>
-        <s v="Tennessee"/>
-        <s v="Texas"/>
-        <s v="Utah"/>
-        <s v="Vermont"/>
-        <s v="Virginia"/>
-        <s v="Washington"/>
-        <s v="West Virginia"/>
-        <s v="Wisconsin"/>
-        <s v="Wyoming"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="**" numFmtId="0">
-      <sharedItems count="50">
-        <s v="AL"/>
-        <s v="AK"/>
-        <s v="AZ"/>
-        <s v="AR"/>
-        <s v="CA"/>
-        <s v="CO"/>
-        <s v="CT"/>
-        <s v="DE"/>
-        <s v="FL"/>
-        <s v="GA"/>
-        <s v="HI"/>
-        <s v="ID"/>
-        <s v="IL"/>
-        <s v="IN"/>
-        <s v="IA"/>
-        <s v="KS"/>
-        <s v="KY"/>
-        <s v="LA"/>
-        <s v="ME"/>
-        <s v="MD"/>
-        <s v="MA"/>
-        <s v="MI"/>
-        <s v="MN"/>
-        <s v="MS"/>
-        <s v="MO"/>
-        <s v="MT"/>
-        <s v="NE"/>
-        <s v="NV"/>
-        <s v="NH"/>
-        <s v="NJ"/>
-        <s v="NM"/>
-        <s v="NY"/>
-        <s v="NC"/>
-        <s v="ND"/>
-        <s v="OH"/>
-        <s v="OK"/>
-        <s v="OR"/>
-        <s v="PA"/>
-        <s v="RI"/>
-        <s v="SC"/>
-        <s v="SD"/>
-        <s v="TN"/>
-        <s v="TX"/>
-        <s v="UT"/>
-        <s v="VT"/>
-        <s v="VA"/>
-        <s v="WA"/>
-        <s v="WV"/>
-        <s v="WI"/>
-        <s v="WY"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="District" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="REP1" numFmtId="3">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="234200"/>
-    </cacheField>
-    <cacheField name="DEM1" numFmtId="3">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="200644"/>
-    </cacheField>
-    <cacheField name="OTH1" numFmtId="3">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="109453"/>
-    </cacheField>
-    <cacheField name="TOT1" numFmtId="3">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="332888"/>
-    </cacheField>
-    <cacheField name="REP2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
-    </cacheField>
-    <cacheField name="DEM2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
-    </cacheField>
-    <cacheField name="OTH2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="107">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="4th"/>
-    <n v="132831"/>
-    <n v="0"/>
-    <n v="1921"/>
-    <n v="134752"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="5th"/>
-    <n v="115338"/>
-    <n v="0"/>
-    <n v="39636"/>
-    <n v="154974"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="133687"/>
-    <n v="2212"/>
-    <n v="135899"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="54235"/>
-    <n v="18219"/>
-    <n v="72454"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="8th"/>
-    <n v="128710"/>
-    <n v="0"/>
-    <n v="41066"/>
-    <n v="169776"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="3rd"/>
-    <n v="151630"/>
-    <n v="0"/>
-    <n v="39305"/>
-    <n v="190935"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="4th"/>
-    <n v="211134"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="211134"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="5th"/>
-    <n v="0"/>
-    <n v="129613"/>
-    <n v="41535"/>
-    <n v="171148"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="17th"/>
-    <n v="0"/>
-    <n v="134408"/>
-    <n v="0"/>
-    <n v="134408"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="19th"/>
-    <n v="0"/>
-    <n v="127788"/>
-    <n v="0"/>
-    <n v="127788"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="20th"/>
-    <n v="0"/>
-    <n v="106034"/>
-    <n v="35010"/>
-    <n v="141044"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="25th"/>
-    <n v="114072"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="114072"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="28th"/>
-    <n v="0"/>
-    <n v="91996"/>
-    <n v="28268"/>
-    <n v="120264"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="34th"/>
-    <n v="0"/>
-    <n v="61621"/>
-    <n v="0"/>
-    <n v="61621"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="35th"/>
-    <n v="0"/>
-    <n v="62255"/>
-    <n v="0"/>
-    <n v="62255"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="40th"/>
-    <n v="0"/>
-    <n v="49379"/>
-    <n v="0"/>
-    <n v="49379"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="44th"/>
-    <n v="0"/>
-    <n v="59670"/>
-    <n v="9192"/>
-    <n v="68862"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="7"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="4th"/>
-    <n v="177887"/>
-    <n v="0"/>
-    <n v="49366"/>
-    <n v="227253"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="12th"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="13th"/>
-    <n v="168172"/>
-    <n v="0"/>
-    <n v="55404"/>
-    <n v="223576"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="14th"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="21st"/>
-    <n v="0"/>
-    <n v="153395"/>
-    <n v="575"/>
-    <n v="153970"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="25th"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="27th"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="3rd"/>
-    <n v="156277"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="156277"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="4th"/>
-    <n v="0"/>
-    <n v="161211"/>
-    <n v="109"/>
-    <n v="161320"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="6th"/>
-    <n v="0"/>
-    <n v="170326"/>
-    <n v="0"/>
-    <n v="170326"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="8th"/>
-    <n v="129938"/>
-    <n v="0"/>
-    <n v="119"/>
-    <n v="130057"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="11th"/>
-    <n v="161532"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="161532"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="13th"/>
-    <n v="0"/>
-    <n v="159445"/>
-    <n v="0"/>
-    <n v="159445"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="14th"/>
-    <n v="118782"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="118782"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="10"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="11"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="12"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="13"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="14"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="15"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="16"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <s v="2nd"/>
-    <n v="0"/>
-    <n v="190006"/>
-    <n v="31564"/>
-    <n v="221570"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <s v="3rd"/>
-    <n v="207926"/>
-    <n v="0"/>
-    <n v="28342"/>
-    <n v="236268"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <s v="4th"/>
-    <n v="234200"/>
-    <n v="0"/>
-    <n v="98688"/>
-    <n v="332888"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="18"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="19"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="1st"/>
-    <n v="0"/>
-    <n v="167612"/>
-    <n v="59463"/>
-    <n v="227075"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="2nd"/>
-    <n v="0"/>
-    <n v="169640"/>
-    <n v="66173"/>
-    <n v="235813"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="4th"/>
-    <n v="0"/>
-    <n v="184158"/>
-    <n v="71139"/>
-    <n v="255297"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="5th"/>
-    <n v="0"/>
-    <n v="182100"/>
-    <n v="74386"/>
-    <n v="256486"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="142133"/>
-    <n v="33944"/>
-    <n v="176077"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="8th"/>
-    <n v="0"/>
-    <n v="200644"/>
-    <n v="61137"/>
-    <n v="261781"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="21"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="22"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="23"/>
-    <s v="2nd"/>
-    <n v="0"/>
-    <n v="100688"/>
-    <n v="47958"/>
-    <n v="148646"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="24"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <x v="25"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <x v="26"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <x v="27"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="28"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="29"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <x v="30"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="5th"/>
-    <n v="0"/>
-    <n v="75712"/>
-    <n v="18688"/>
-    <n v="94400"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="6th"/>
-    <n v="0"/>
-    <n v="49227"/>
-    <n v="28079"/>
-    <n v="77306"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="8th"/>
-    <n v="0"/>
-    <n v="70469"/>
-    <n v="24644"/>
-    <n v="95113"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="9th"/>
-    <n v="0"/>
-    <n v="70997"/>
-    <n v="30609"/>
-    <n v="101606"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="10th"/>
-    <n v="0"/>
-    <n v="73945"/>
-    <n v="39281"/>
-    <n v="113226"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="13th"/>
-    <n v="0"/>
-    <n v="63437"/>
-    <n v="28397"/>
-    <n v="91834"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="14th"/>
-    <n v="0"/>
-    <n v="45370"/>
-    <n v="22002"/>
-    <n v="67372"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="15th"/>
-    <n v="0"/>
-    <n v="53128"/>
-    <n v="8140"/>
-    <n v="61268"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="16th"/>
-    <n v="0"/>
-    <n v="90088"/>
-    <n v="48567"/>
-    <n v="138655"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="22nd"/>
-    <n v="113574"/>
-    <n v="0"/>
-    <n v="61798"/>
-    <n v="175372"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="32"/>
-    <s v="9th"/>
-    <n v="163080"/>
-    <n v="0"/>
-    <n v="10588"/>
-    <n v="173668"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="33"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <x v="34"/>
-    <s v="7th"/>
-    <n v="143959"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="143959"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="35"/>
-    <s v="1st"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <x v="36"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="14th"/>
-    <n v="0"/>
-    <n v="148351"/>
-    <n v="0"/>
-    <n v="148351"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="15th"/>
-    <n v="128285"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="128285"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <x v="38"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="39"/>
-    <s v="1st"/>
-    <n v="119392"/>
-    <n v="0"/>
-    <n v="8423"/>
-    <n v="127815"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="39"/>
-    <s v="4th"/>
-    <n v="126452"/>
-    <n v="0"/>
-    <n v="22597"/>
-    <n v="149049"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <x v="40"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="41"/>
-    <s v="1st"/>
-    <n v="115533"/>
-    <n v="0"/>
-    <n v="23937"/>
-    <n v="139470"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="3rd"/>
-    <n v="113404"/>
-    <n v="0"/>
-    <n v="1681"/>
-    <n v="115085"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="4th"/>
-    <n v="115085"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="115085"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="5th"/>
-    <n v="88998"/>
-    <n v="0"/>
-    <n v="15264"/>
-    <n v="104262"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="8th"/>
-    <n v="125066"/>
-    <n v="0"/>
-    <n v="14947"/>
-    <n v="140013"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="9th"/>
-    <n v="0"/>
-    <n v="78109"/>
-    <n v="7894"/>
-    <n v="86003"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="11th"/>
-    <n v="107939"/>
-    <n v="0"/>
-    <n v="11635"/>
-    <n v="119574"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="20th"/>
-    <n v="0"/>
-    <n v="66554"/>
-    <n v="21410"/>
-    <n v="87964"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="21st"/>
-    <n v="135660"/>
-    <n v="0"/>
-    <n v="53336"/>
-    <n v="188996"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="26th"/>
-    <n v="116944"/>
-    <n v="0"/>
-    <n v="24526"/>
-    <n v="141470"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="28th"/>
-    <n v="0"/>
-    <n v="62508"/>
-    <n v="13628"/>
-    <n v="76136"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="29th"/>
-    <n v="0"/>
-    <n v="41321"/>
-    <n v="4822"/>
-    <n v="46143"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="30th"/>
-    <n v="0"/>
-    <n v="93041"/>
-    <n v="12752"/>
-    <n v="105793"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="33rd"/>
-    <n v="0"/>
-    <n v="43769"/>
-    <n v="6823"/>
-    <n v="50592"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <x v="43"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="44"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="3rd"/>
-    <n v="0"/>
-    <n v="139197"/>
-    <n v="8205"/>
-    <n v="147402"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="6th"/>
-    <n v="133898"/>
-    <n v="0"/>
-    <n v="109453"/>
-    <n v="243351"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="9th"/>
-    <n v="117465"/>
-    <n v="0"/>
-    <n v="45350"/>
-    <n v="162815"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="46"/>
-    <s v="4th"/>
-    <n v="153079"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="153079"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <x v="47"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="48"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <x v="49"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:E54" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="25"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="26"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="27"/>
-        <item x="31"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="46"/>
-        <item x="48"/>
-        <item x="47"/>
-        <item x="49"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="3" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="3" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="3" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="3" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="51">
-    <i>
-      <x/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="12"/>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="14"/>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="15"/>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="19"/>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="21"/>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="24"/>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="25"/>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="27"/>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="28"/>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="29"/>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="30"/>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="31"/>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="32"/>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="33"/>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="34"/>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="45"/>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="46"/>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="48"/>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="49"/>
-      <x v="49"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Sum of TOT1" fld="6" baseField="0" baseItem="0" numFmtId="3"/>
-    <dataField name="Sum of REP2" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of DEM2" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2959,13 +1026,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2975,15 +1042,12 @@
     <col min="3" max="3" width="10.83203125" style="13"/>
     <col min="4" max="5" width="10.83203125" style="3"/>
     <col min="6" max="6" width="12.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="13" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" style="17" customWidth="1"/>
-    <col min="12" max="14" width="5.1640625" customWidth="1"/>
-    <col min="15" max="15" width="26" style="17" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" style="17" customWidth="1"/>
+    <col min="8" max="10" width="5.1640625" customWidth="1"/>
+    <col min="11" max="11" width="26" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>19</v>
@@ -2994,23 +1058,15 @@
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32" t="s">
-        <v>163</v>
-      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
       <c r="K1" s="15"/>
-      <c r="L1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="15"/>
-    </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3029,35 +1085,23 @@
       <c r="F2" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>167</v>
+      <c r="G2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O2" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3077,33 +1121,20 @@
       <c r="F3" s="3">
         <v>1080880</v>
       </c>
-      <c r="G3" s="36">
-        <v>425625</v>
-      </c>
-      <c r="H3" s="35">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35">
-        <v>1</v>
-      </c>
-      <c r="J3" s="33">
-        <f t="shared" ref="J3:J34" si="0">(F3-G3)/(N3-SUM(H3:I3))</f>
-        <v>163813.75</v>
-      </c>
-      <c r="K3" s="17">
+      <c r="G3" s="17">
         <v>6</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -3123,33 +1154,20 @@
       <c r="F4" s="3">
         <v>279741</v>
       </c>
-      <c r="G4" s="36">
-        <v>0</v>
-      </c>
-      <c r="H4" s="35">
-        <v>0</v>
-      </c>
-      <c r="I4" s="35">
-        <v>0</v>
-      </c>
-      <c r="J4" s="33">
-        <f t="shared" si="0"/>
-        <v>279741</v>
-      </c>
-      <c r="K4" s="17">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G4" s="17">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -3163,39 +1181,26 @@
         <v>577943</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" ref="E5:E52" si="1">F5-D5-C5</f>
+        <f t="shared" ref="E5:E52" si="0">F5-D5-C5</f>
         <v>72492</v>
       </c>
       <c r="F5" s="3">
         <v>1467603</v>
       </c>
-      <c r="G5" s="36">
-        <v>242230</v>
-      </c>
-      <c r="H5" s="35">
-        <v>1</v>
-      </c>
-      <c r="I5" s="35">
-        <v>1</v>
-      </c>
-      <c r="J5" s="33">
-        <f t="shared" si="0"/>
-        <v>175053.28571428571</v>
-      </c>
-      <c r="K5" s="17">
+      <c r="G5" s="17">
         <v>5</v>
       </c>
-      <c r="L5">
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -3209,39 +1214,26 @@
         <v>254774</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>66247</v>
       </c>
       <c r="F6" s="3">
         <v>830652</v>
       </c>
-      <c r="G6" s="36">
-        <v>190935</v>
-      </c>
-      <c r="H6" s="35">
-        <v>1</v>
-      </c>
-      <c r="I6" s="35">
-        <v>0</v>
-      </c>
-      <c r="J6" s="33">
-        <f t="shared" si="0"/>
-        <v>213239</v>
-      </c>
-      <c r="K6" s="17">
+      <c r="G6" s="17">
         <v>4</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -3255,39 +1247,26 @@
         <v>4067737</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>114005</v>
       </c>
       <c r="F7" s="3">
         <v>7132421</v>
       </c>
-      <c r="G7" s="36">
-        <v>1261975</v>
-      </c>
-      <c r="H7" s="35">
-        <v>2</v>
-      </c>
-      <c r="I7" s="35">
-        <v>9</v>
-      </c>
-      <c r="J7" s="33">
-        <f t="shared" si="0"/>
-        <v>139772.52380952382</v>
-      </c>
-      <c r="K7" s="17">
+      <c r="G7" s="17">
         <v>14</v>
       </c>
-      <c r="L7">
+      <c r="H7">
         <v>39</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -3301,39 +1280,26 @@
         <v>936417</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>63911</v>
       </c>
       <c r="F8" s="3">
         <v>2000525</v>
       </c>
-      <c r="G8" s="36">
-        <v>0</v>
-      </c>
-      <c r="H8" s="35">
-        <v>0</v>
-      </c>
-      <c r="I8" s="35">
-        <v>0</v>
-      </c>
-      <c r="J8" s="33">
-        <f t="shared" si="0"/>
-        <v>285789.28571428574</v>
-      </c>
-      <c r="K8" s="17">
+      <c r="G8" s="17">
         <v>4</v>
       </c>
-      <c r="L8">
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3347,39 +1313,26 @@
         <v>596390</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>61954</v>
       </c>
       <c r="F9" s="3">
         <v>1067857</v>
       </c>
-      <c r="G9" s="36">
-        <v>0</v>
-      </c>
-      <c r="H9" s="35">
-        <v>0</v>
-      </c>
-      <c r="I9" s="35">
-        <v>0</v>
-      </c>
-      <c r="J9" s="33">
-        <f t="shared" si="0"/>
-        <v>213571.4</v>
-      </c>
-      <c r="K9" s="17">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -3393,39 +1346,26 @@
         <v>137251</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9220</v>
       </c>
       <c r="F10" s="3">
         <v>231617</v>
       </c>
-      <c r="G10" s="36">
-        <v>0</v>
-      </c>
-      <c r="H10" s="35">
-        <v>0</v>
-      </c>
-      <c r="I10" s="35">
-        <v>0</v>
-      </c>
-      <c r="J10" s="33">
-        <f t="shared" si="0"/>
-        <v>231617</v>
-      </c>
-      <c r="K10" s="17">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -3439,39 +1379,26 @@
         <v>2130626</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>154478</v>
       </c>
       <c r="F11" s="3">
         <v>4998555</v>
       </c>
-      <c r="G11" s="36">
-        <v>604799</v>
-      </c>
-      <c r="H11" s="35">
-        <v>5</v>
-      </c>
-      <c r="I11" s="35">
-        <v>2</v>
-      </c>
-      <c r="J11" s="33">
-        <f t="shared" si="0"/>
-        <v>219687.8</v>
-      </c>
-      <c r="K11" s="17">
+      <c r="G11" s="17">
         <v>17</v>
       </c>
-      <c r="L11">
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -3485,39 +1412,26 @@
         <v>956361</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>228</v>
       </c>
       <c r="F12" s="3">
         <v>2305665</v>
       </c>
-      <c r="G12" s="36">
-        <v>1057739</v>
-      </c>
-      <c r="H12" s="35">
+      <c r="G12" s="17">
+        <v>10</v>
+      </c>
+      <c r="H12">
         <v>4</v>
       </c>
-      <c r="I12" s="35">
-        <v>3</v>
-      </c>
-      <c r="J12" s="33">
-        <f t="shared" si="0"/>
-        <v>178275.14285714287</v>
-      </c>
-      <c r="K12" s="17">
-        <v>10</v>
-      </c>
-      <c r="L12">
-        <v>4</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3531,39 +1445,26 @@
         <v>235400</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14219</v>
       </c>
       <c r="F13" s="3">
         <v>369703</v>
       </c>
-      <c r="G13" s="36">
-        <v>0</v>
-      </c>
-      <c r="H13" s="35">
-        <v>0</v>
-      </c>
-      <c r="I13" s="35">
-        <v>0</v>
-      </c>
-      <c r="J13" s="33">
-        <f t="shared" si="0"/>
-        <v>184851.5</v>
-      </c>
-      <c r="K13" s="17">
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -3577,39 +1478,26 @@
         <v>160078</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F14" s="3">
         <v>435157</v>
       </c>
-      <c r="G14" s="36">
-        <v>0</v>
-      </c>
-      <c r="H14" s="35">
-        <v>0</v>
-      </c>
-      <c r="I14" s="35">
-        <v>0</v>
-      </c>
-      <c r="J14" s="33">
-        <f t="shared" si="0"/>
-        <v>217578.5</v>
-      </c>
-      <c r="K14" s="17">
+      <c r="G14" s="17">
         <v>2</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -3623,39 +1511,26 @@
         <v>1822779</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23358</v>
       </c>
       <c r="F15" s="3">
         <v>3568002</v>
       </c>
-      <c r="G15" s="36">
-        <v>0</v>
-      </c>
-      <c r="H15" s="35">
-        <v>0</v>
-      </c>
-      <c r="I15" s="35">
-        <v>0</v>
-      </c>
-      <c r="J15" s="33">
-        <f t="shared" si="0"/>
-        <v>198222.33333333334</v>
-      </c>
-      <c r="K15" s="17">
+      <c r="G15" s="17">
         <v>8</v>
       </c>
-      <c r="L15">
+      <c r="H15">
         <v>10</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -3669,39 +1544,26 @@
         <v>502104</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50948</v>
       </c>
       <c r="F16" s="3">
         <v>1341814</v>
       </c>
-      <c r="G16" s="36">
-        <v>0</v>
-      </c>
-      <c r="H16" s="35">
-        <v>0</v>
-      </c>
-      <c r="I16" s="35">
-        <v>0</v>
-      </c>
-      <c r="J16" s="33">
-        <f t="shared" si="0"/>
-        <v>149090.44444444444</v>
-      </c>
-      <c r="K16" s="17">
+      <c r="G16" s="17">
         <v>7</v>
       </c>
-      <c r="L16">
+      <c r="H16">
         <v>2</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -3715,39 +1577,26 @@
         <v>509189</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15280</v>
       </c>
       <c r="F17" s="3">
         <v>1120334</v>
       </c>
-      <c r="G17" s="36">
-        <v>0</v>
-      </c>
-      <c r="H17" s="35">
-        <v>0</v>
-      </c>
-      <c r="I17" s="35">
-        <v>0</v>
-      </c>
-      <c r="J17" s="33">
-        <f t="shared" si="0"/>
-        <v>280083.5</v>
-      </c>
-      <c r="K17" s="17">
+      <c r="G17" s="17">
         <v>3</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -3761,39 +1610,26 @@
         <v>311530</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9791</v>
       </c>
       <c r="F18" s="3">
         <v>862077</v>
       </c>
-      <c r="G18" s="36">
-        <v>0</v>
-      </c>
-      <c r="H18" s="35">
-        <v>0</v>
-      </c>
-      <c r="I18" s="35">
-        <v>0</v>
-      </c>
-      <c r="J18" s="33">
-        <f t="shared" si="0"/>
-        <v>215519.25</v>
-      </c>
-      <c r="K18" s="17">
+      <c r="G18" s="17">
         <v>4</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -3807,39 +1643,26 @@
         <v>508151</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2318</v>
       </c>
       <c r="F19" s="3">
         <v>1397626</v>
       </c>
-      <c r="G19" s="36">
-        <v>0</v>
-      </c>
-      <c r="H19" s="35">
-        <v>0</v>
-      </c>
-      <c r="I19" s="35">
-        <v>0</v>
-      </c>
-      <c r="J19" s="33">
-        <f t="shared" si="0"/>
-        <v>232937.66666666666</v>
-      </c>
-      <c r="K19" s="17">
+      <c r="G19" s="17">
         <v>5</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -3853,39 +1676,26 @@
         <v>406186</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>131266</v>
       </c>
       <c r="F20" s="3">
         <v>1568722</v>
       </c>
-      <c r="G20" s="36">
-        <v>790726</v>
-      </c>
-      <c r="H20" s="35">
-        <v>2</v>
-      </c>
-      <c r="I20" s="35">
-        <v>1</v>
-      </c>
-      <c r="J20" s="33">
-        <f t="shared" si="0"/>
-        <v>259332</v>
-      </c>
-      <c r="K20" s="17">
+      <c r="G20" s="17">
         <v>5</v>
       </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -3899,39 +1709,26 @@
         <v>305242</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>83683</v>
       </c>
       <c r="F21" s="3">
         <v>616996</v>
       </c>
-      <c r="G21" s="36">
-        <v>0</v>
-      </c>
-      <c r="H21" s="35">
-        <v>0</v>
-      </c>
-      <c r="I21" s="35">
-        <v>0</v>
-      </c>
-      <c r="J21" s="33">
-        <f t="shared" si="0"/>
-        <v>308498</v>
-      </c>
-      <c r="K21" s="17">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
+      <c r="G21" s="17">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -3945,39 +1742,26 @@
         <v>978267</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20370</v>
       </c>
       <c r="F22" s="3">
         <v>1703037</v>
       </c>
-      <c r="G22" s="36">
-        <v>0</v>
-      </c>
-      <c r="H22" s="35">
-        <v>0</v>
-      </c>
-      <c r="I22" s="35">
-        <v>0</v>
-      </c>
-      <c r="J22" s="33">
-        <f t="shared" si="0"/>
-        <v>212879.625</v>
-      </c>
-      <c r="K22" s="17">
-        <v>1</v>
-      </c>
-      <c r="L22">
+      <c r="G22" s="17">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>7</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -3991,39 +1775,26 @@
         <v>1475442</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>402749</v>
       </c>
       <c r="F23" s="3">
         <v>2186789</v>
       </c>
-      <c r="G23" s="36">
-        <v>1412529</v>
-      </c>
-      <c r="H23" s="35">
-        <v>0</v>
-      </c>
-      <c r="I23" s="35">
-        <v>6</v>
-      </c>
-      <c r="J23" s="33">
-        <f t="shared" si="0"/>
-        <v>258086.66666666666</v>
-      </c>
-      <c r="K23" s="17">
-        <v>0</v>
-      </c>
-      <c r="L23">
+      <c r="G23" s="17">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>9</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -4037,39 +1808,26 @@
         <v>1519030</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>103698</v>
       </c>
       <c r="F24" s="3">
         <v>3089477</v>
       </c>
-      <c r="G24" s="36">
-        <v>0</v>
-      </c>
-      <c r="H24" s="35">
-        <v>0</v>
-      </c>
-      <c r="I24" s="35">
-        <v>0</v>
-      </c>
-      <c r="J24" s="33">
-        <f t="shared" si="0"/>
-        <v>220676.92857142858</v>
-      </c>
-      <c r="K24" s="17">
+      <c r="G24" s="17">
         <v>9</v>
       </c>
-      <c r="L24">
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -4083,39 +1841,26 @@
         <v>985760</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>64240</v>
       </c>
       <c r="F25" s="3">
         <v>1963539</v>
       </c>
-      <c r="G25" s="36">
-        <v>0</v>
-      </c>
-      <c r="H25" s="35">
-        <v>0</v>
-      </c>
-      <c r="I25" s="35">
-        <v>0</v>
-      </c>
-      <c r="J25" s="33">
-        <f t="shared" si="0"/>
-        <v>245442.375</v>
-      </c>
-      <c r="K25" s="17">
+      <c r="G25" s="17">
         <v>3</v>
       </c>
-      <c r="L25">
+      <c r="H25">
         <v>5</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -4129,39 +1874,26 @@
         <v>230014</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>67096</v>
       </c>
       <c r="F26" s="3">
         <v>626279</v>
       </c>
-      <c r="G26" s="36">
-        <v>148646</v>
-      </c>
-      <c r="H26" s="35">
-        <v>0</v>
-      </c>
-      <c r="I26" s="35">
-        <v>1</v>
-      </c>
-      <c r="J26" s="33">
-        <f t="shared" si="0"/>
-        <v>159211</v>
-      </c>
-      <c r="K26" s="17">
+      <c r="G26" s="17">
         <v>3</v>
       </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -4175,39 +1907,26 @@
         <v>513600</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>74420</v>
       </c>
       <c r="F27" s="3">
         <v>1426303</v>
       </c>
-      <c r="G27" s="36">
-        <v>0</v>
-      </c>
-      <c r="H27" s="35">
-        <v>0</v>
-      </c>
-      <c r="I27" s="35">
-        <v>0</v>
-      </c>
-      <c r="J27" s="33">
-        <f t="shared" si="0"/>
-        <v>178287.875</v>
-      </c>
-      <c r="K27" s="17">
+      <c r="G27" s="17">
         <v>6</v>
       </c>
-      <c r="L27">
+      <c r="H27">
         <v>2</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -4221,39 +1940,26 @@
         <v>148690</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15402</v>
       </c>
       <c r="F28" s="3">
         <v>367963</v>
       </c>
-      <c r="G28" s="36">
-        <v>0</v>
-      </c>
-      <c r="H28" s="35">
-        <v>0</v>
-      </c>
-      <c r="I28" s="35">
-        <v>0</v>
-      </c>
-      <c r="J28" s="33">
-        <f t="shared" si="0"/>
-        <v>367963</v>
-      </c>
-      <c r="K28" s="17">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G28" s="17">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -4267,39 +1973,26 @@
         <v>185234</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9480</v>
       </c>
       <c r="F29" s="3">
         <v>535530</v>
       </c>
-      <c r="G29" s="36">
-        <v>0</v>
-      </c>
-      <c r="H29" s="35">
-        <v>0</v>
-      </c>
-      <c r="I29" s="35">
-        <v>0</v>
-      </c>
-      <c r="J29" s="33">
-        <f t="shared" si="0"/>
-        <v>178510</v>
-      </c>
-      <c r="K29" s="17">
+      <c r="G29" s="17">
         <v>2</v>
       </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -4313,39 +2006,26 @@
         <v>210147</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28053</v>
       </c>
       <c r="F30" s="3">
         <v>543009</v>
       </c>
-      <c r="G30" s="36">
-        <v>0</v>
-      </c>
-      <c r="H30" s="35">
-        <v>0</v>
-      </c>
-      <c r="I30" s="35">
-        <v>0</v>
-      </c>
-      <c r="J30" s="33">
-        <f t="shared" si="0"/>
-        <v>135752.25</v>
-      </c>
-      <c r="K30" s="17">
+      <c r="G30" s="17">
         <v>3</v>
       </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -4359,39 +2039,26 @@
         <v>247469</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1072</v>
       </c>
       <c r="F31" s="3">
         <v>480920</v>
       </c>
-      <c r="G31" s="36">
-        <v>0</v>
-      </c>
-      <c r="H31" s="35">
-        <v>0</v>
-      </c>
-      <c r="I31" s="35">
-        <v>0</v>
-      </c>
-      <c r="J31" s="33">
-        <f t="shared" si="0"/>
-        <v>240460</v>
-      </c>
-      <c r="K31" s="17">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
+      <c r="G31" s="17">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -4405,39 +2072,26 @@
         <v>914172</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29928</v>
       </c>
       <c r="F32" s="3">
         <v>1821365</v>
       </c>
-      <c r="G32" s="36">
-        <v>0</v>
-      </c>
-      <c r="H32" s="35">
-        <v>0</v>
-      </c>
-      <c r="I32" s="35">
-        <v>0</v>
-      </c>
-      <c r="J32" s="33">
-        <f t="shared" si="0"/>
-        <v>151780.41666666666</v>
-      </c>
-      <c r="K32" s="17">
+      <c r="G32" s="17">
         <v>6</v>
       </c>
-      <c r="L32">
+      <c r="H32">
         <v>6</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -4451,39 +2105,26 @@
         <v>271222</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>121</v>
       </c>
       <c r="F33" s="3">
         <v>511885</v>
       </c>
-      <c r="G33" s="36">
-        <v>0</v>
-      </c>
-      <c r="H33" s="35">
-        <v>0</v>
-      </c>
-      <c r="I33" s="35">
-        <v>0</v>
-      </c>
-      <c r="J33" s="33">
-        <f t="shared" si="0"/>
-        <v>170628.33333333334</v>
-      </c>
-      <c r="K33" s="17">
-        <v>1</v>
-      </c>
-      <c r="L33">
+      <c r="G33" s="17">
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>2</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -4498,39 +2139,26 @@
         <v>1788105</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>889188</v>
       </c>
       <c r="F34" s="3">
         <v>3934705</v>
       </c>
-      <c r="G34" s="36">
-        <v>1016152</v>
-      </c>
-      <c r="H34" s="35">
-        <v>1</v>
-      </c>
-      <c r="I34" s="35">
+      <c r="G34" s="17">
         <v>9</v>
       </c>
-      <c r="J34" s="33">
-        <f t="shared" si="0"/>
-        <v>171679.58823529413</v>
-      </c>
-      <c r="K34" s="17">
-        <v>9</v>
-      </c>
-      <c r="L34">
+      <c r="H34">
         <v>18</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -4544,39 +2172,26 @@
         <v>1234027</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18607</v>
       </c>
       <c r="F35" s="3">
         <v>2807998</v>
       </c>
-      <c r="G35" s="36">
-        <v>173668</v>
-      </c>
-      <c r="H35" s="35">
-        <v>1</v>
-      </c>
-      <c r="I35" s="35">
-        <v>0</v>
-      </c>
-      <c r="J35" s="33">
-        <f t="shared" ref="J35:J52" si="2">(F35-G35)/(N35-SUM(H35:I35))</f>
-        <v>219527.5</v>
-      </c>
-      <c r="K35" s="17">
+      <c r="G35" s="17">
         <v>10</v>
       </c>
-      <c r="L35">
+      <c r="H35">
         <v>3</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -4590,39 +2205,26 @@
         <v>95678</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14892</v>
       </c>
       <c r="F36" s="3">
         <v>248670</v>
       </c>
-      <c r="G36" s="36">
-        <v>0</v>
-      </c>
-      <c r="H36" s="35">
-        <v>0</v>
-      </c>
-      <c r="I36" s="35">
-        <v>0</v>
-      </c>
-      <c r="J36" s="33">
-        <f t="shared" si="2"/>
-        <v>248670</v>
-      </c>
-      <c r="K36" s="17">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G36" s="17">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -4636,39 +2238,26 @@
         <v>1179587</v>
       </c>
       <c r="E37" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>49651</v>
       </c>
       <c r="F37" s="3">
         <v>3000161</v>
       </c>
-      <c r="G37" s="36">
-        <v>143959</v>
-      </c>
-      <c r="H37" s="35">
-        <v>1</v>
-      </c>
-      <c r="I37" s="35">
-        <v>0</v>
-      </c>
-      <c r="J37" s="33">
-        <f t="shared" si="2"/>
-        <v>190413.46666666667</v>
-      </c>
-      <c r="K37" s="17">
+      <c r="G37" s="17">
         <v>12</v>
       </c>
-      <c r="L37">
+      <c r="H37">
         <v>4</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -4682,39 +2271,26 @@
         <v>174022</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21778</v>
       </c>
       <c r="F38" s="3">
         <v>653413</v>
       </c>
-      <c r="G38" s="36">
-        <v>0</v>
-      </c>
-      <c r="H38" s="35">
-        <v>1</v>
-      </c>
-      <c r="I38" s="35">
-        <v>0</v>
-      </c>
-      <c r="J38" s="33">
-        <f t="shared" si="2"/>
-        <v>163353.25</v>
-      </c>
-      <c r="K38" s="17">
+      <c r="G38" s="17">
         <v>5</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -4728,39 +2304,26 @@
         <v>778139</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>89654</v>
       </c>
       <c r="F39" s="3">
         <v>1450702</v>
       </c>
-      <c r="G39" s="36">
-        <v>0</v>
-      </c>
-      <c r="H39" s="35">
-        <v>0</v>
-      </c>
-      <c r="I39" s="35">
-        <v>0</v>
-      </c>
-      <c r="J39" s="33">
-        <f t="shared" si="2"/>
-        <v>290140.40000000002</v>
-      </c>
-      <c r="K39" s="17">
-        <v>1</v>
-      </c>
-      <c r="L39">
+      <c r="G39" s="17">
+        <v>1</v>
+      </c>
+      <c r="H39">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -4774,39 +2337,26 @@
         <v>1467594</v>
       </c>
       <c r="E40" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22734</v>
       </c>
       <c r="F40" s="3">
         <v>3323533</v>
       </c>
-      <c r="G40" s="36">
-        <v>276636</v>
-      </c>
-      <c r="H40" s="35">
-        <v>1</v>
-      </c>
-      <c r="I40" s="35">
-        <v>1</v>
-      </c>
-      <c r="J40" s="33">
-        <f t="shared" si="2"/>
-        <v>190431.0625</v>
-      </c>
-      <c r="K40" s="17">
+      <c r="G40" s="17">
         <v>13</v>
       </c>
-      <c r="L40">
+      <c r="H40">
         <v>5</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -4820,39 +2370,26 @@
         <v>192776</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>760</v>
       </c>
       <c r="F41" s="3">
         <v>316257</v>
       </c>
-      <c r="G41" s="36">
-        <v>0</v>
-      </c>
-      <c r="H41" s="35">
-        <v>0</v>
-      </c>
-      <c r="I41" s="35">
-        <v>0</v>
-      </c>
-      <c r="J41" s="33">
-        <f t="shared" si="2"/>
-        <v>158128.5</v>
-      </c>
-      <c r="K41" s="17">
-        <v>0</v>
-      </c>
-      <c r="L41">
+      <c r="G41" s="17">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>2</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -4866,39 +2403,26 @@
         <v>377025</v>
       </c>
       <c r="E42" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44301</v>
       </c>
       <c r="F42" s="3">
         <v>1155782</v>
       </c>
-      <c r="G42" s="36">
-        <v>276864</v>
-      </c>
-      <c r="H42" s="35">
-        <v>2</v>
-      </c>
-      <c r="I42" s="35">
-        <v>0</v>
-      </c>
-      <c r="J42" s="33">
-        <f t="shared" si="2"/>
-        <v>175783.6</v>
-      </c>
-      <c r="K42" s="17">
+      <c r="G42" s="17">
         <v>6</v>
       </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -4912,39 +2436,26 @@
         <v>92485</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>276319</v>
       </c>
-      <c r="G43" s="36">
-        <v>0</v>
-      </c>
-      <c r="H43" s="35">
-        <v>0</v>
-      </c>
-      <c r="I43" s="35">
-        <v>0</v>
-      </c>
-      <c r="J43" s="33">
-        <f t="shared" si="2"/>
-        <v>276319</v>
-      </c>
-      <c r="K43" s="17">
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G43" s="17">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -4958,39 +2469,26 @@
         <v>448421</v>
       </c>
       <c r="E44" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>73894</v>
       </c>
       <c r="F44" s="3">
         <v>1371161</v>
       </c>
-      <c r="G44" s="36">
-        <v>139470</v>
-      </c>
-      <c r="H44" s="35">
-        <v>1</v>
-      </c>
-      <c r="I44" s="35">
-        <v>0</v>
-      </c>
-      <c r="J44" s="33">
-        <f t="shared" si="2"/>
-        <v>153961.375</v>
-      </c>
-      <c r="K44" s="17">
+      <c r="G44" s="17">
         <v>7</v>
       </c>
-      <c r="L44">
+      <c r="H44">
         <v>2</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -5004,39 +2502,26 @@
         <v>1474016</v>
       </c>
       <c r="E45" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>294891</v>
       </c>
       <c r="F45" s="3">
         <v>4453499</v>
       </c>
-      <c r="G45" s="36">
-        <v>1377116</v>
-      </c>
-      <c r="H45" s="35">
-        <v>7</v>
-      </c>
-      <c r="I45" s="35">
-        <v>6</v>
-      </c>
-      <c r="J45" s="33">
-        <f t="shared" si="2"/>
-        <v>133755.78260869565</v>
-      </c>
-      <c r="K45" s="17">
+      <c r="G45" s="17">
         <v>25</v>
       </c>
-      <c r="L45">
+      <c r="H45">
         <v>11</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -5050,39 +2535,26 @@
         <v>183491</v>
       </c>
       <c r="E46" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31445</v>
       </c>
       <c r="F46" s="3">
         <v>565970</v>
       </c>
-      <c r="G46" s="36">
-        <v>0</v>
-      </c>
-      <c r="H46" s="35">
-        <v>0</v>
-      </c>
-      <c r="I46" s="35">
-        <v>0</v>
-      </c>
-      <c r="J46" s="33">
-        <f t="shared" si="2"/>
-        <v>141492.5</v>
-      </c>
-      <c r="K46" s="17">
+      <c r="G46" s="17">
         <v>4</v>
       </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -5096,39 +2568,26 @@
         <v>123349</v>
       </c>
       <c r="E47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8723</v>
       </c>
       <c r="F47" s="3">
         <v>191504</v>
       </c>
-      <c r="G47" s="36">
-        <v>0</v>
-      </c>
-      <c r="H47" s="35">
-        <v>0</v>
-      </c>
-      <c r="I47" s="35">
-        <v>0</v>
-      </c>
-      <c r="J47" s="33">
-        <f t="shared" si="2"/>
-        <v>191504</v>
-      </c>
-      <c r="K47" s="17">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G47" s="17">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -5142,39 +2601,26 @@
         <v>845939</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>145645</v>
       </c>
       <c r="F48" s="3">
         <v>2135331</v>
       </c>
-      <c r="G48" s="36">
-        <v>553568</v>
-      </c>
-      <c r="H48" s="35">
-        <v>2</v>
-      </c>
-      <c r="I48" s="35">
-        <v>1</v>
-      </c>
-      <c r="J48" s="33">
-        <f t="shared" si="2"/>
-        <v>197720.375</v>
-      </c>
-      <c r="K48" s="17">
+      <c r="G48" s="17">
         <v>8</v>
       </c>
-      <c r="L48">
+      <c r="H48">
         <v>3</v>
       </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -5188,39 +2634,26 @@
         <v>1047747</v>
       </c>
       <c r="E49" s="6">
-        <f t="shared" ref="E49" si="3">F49-D49-C49</f>
+        <f t="shared" ref="E49" si="1">F49-D49-C49</f>
         <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>2029600</v>
       </c>
-      <c r="G49" s="36">
-        <v>153079</v>
-      </c>
-      <c r="H49" s="35">
-        <v>1</v>
-      </c>
-      <c r="I49" s="35">
-        <v>0</v>
-      </c>
-      <c r="J49" s="33">
-        <f t="shared" si="2"/>
-        <v>208502.33333333334</v>
-      </c>
-      <c r="K49" s="17">
+      <c r="G49" s="17">
         <v>4</v>
       </c>
-      <c r="L49">
+      <c r="H49">
         <v>6</v>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -5234,39 +2667,26 @@
         <v>182484</v>
       </c>
       <c r="E50" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14081</v>
       </c>
       <c r="F50" s="3">
         <v>439388</v>
       </c>
-      <c r="G50" s="36">
-        <v>0</v>
-      </c>
-      <c r="H50" s="35">
-        <v>0</v>
-      </c>
-      <c r="I50" s="35">
-        <v>0</v>
-      </c>
-      <c r="J50" s="33">
-        <f t="shared" si="2"/>
-        <v>146462.66666666666</v>
-      </c>
-      <c r="K50" s="17">
+      <c r="G50" s="17">
         <v>3</v>
       </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -5280,39 +2700,26 @@
         <v>1102581</v>
       </c>
       <c r="E51" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19663</v>
       </c>
       <c r="F51" s="3">
         <v>2355580</v>
       </c>
-      <c r="G51" s="36">
-        <v>0</v>
-      </c>
-      <c r="H51" s="35">
-        <v>0</v>
-      </c>
-      <c r="I51" s="35">
-        <v>0</v>
-      </c>
-      <c r="J51" s="33">
-        <f t="shared" si="2"/>
-        <v>294447.5</v>
-      </c>
-      <c r="K51" s="17">
+      <c r="G51" s="17">
         <v>5</v>
       </c>
-      <c r="L51">
+      <c r="H51">
         <v>3</v>
       </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>107</v>
       </c>
@@ -5326,42 +2733,29 @@
         <v>37803</v>
       </c>
       <c r="E52" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20312</v>
       </c>
       <c r="F52" s="3">
         <v>171153</v>
       </c>
-      <c r="G52" s="36">
-        <v>0</v>
-      </c>
-      <c r="H52" s="35">
-        <v>0</v>
-      </c>
-      <c r="I52" s="35">
-        <v>0</v>
-      </c>
-      <c r="J52" s="33">
-        <f t="shared" si="2"/>
-        <v>171153</v>
-      </c>
-      <c r="K52" s="17">
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G52" s="17">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>13</v>
       </c>
@@ -5371,45 +2765,39 @@
         <v>39926526</v>
       </c>
       <c r="D54" s="7">
-        <f t="shared" ref="D54:F54" si="4">SUM(D3:D52)</f>
+        <f t="shared" ref="D54:F54" si="2">SUM(D3:D52)</f>
         <v>35368840</v>
       </c>
       <c r="E54" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3517403</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>78812769</v>
       </c>
-      <c r="G54" s="16"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K54" s="18">
-        <f>SUM(K3:K52)</f>
+      <c r="G54" s="18">
+        <f>SUM(G3:G52)</f>
         <v>247</v>
       </c>
-      <c r="L54" s="5">
-        <f t="shared" ref="L54:N54" si="5">SUM(L3:L52)</f>
+      <c r="H54" s="5">
+        <f t="shared" ref="H54:J54" si="3">SUM(H3:H52)</f>
         <v>188</v>
       </c>
-      <c r="M54" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="5">
-        <f t="shared" si="5"/>
+      <c r="I54" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="5">
+        <f t="shared" si="3"/>
         <v>435</v>
       </c>
-      <c r="O54" s="18"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K54" s="18"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E55" s="6"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>111</v>
       </c>
@@ -5422,20 +2810,20 @@
       <c r="F57" s="3">
         <v>78812769</v>
       </c>
-      <c r="K57" s="17">
+      <c r="G57" s="17">
         <v>247</v>
       </c>
-      <c r="L57">
+      <c r="H57">
         <v>188</v>
       </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
         <v>435</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -5444,36 +2832,36 @@
         <v>0</v>
       </c>
       <c r="D58" s="3">
-        <f t="shared" ref="D58:F58" si="6">D54-D57</f>
+        <f t="shared" ref="D58:F58" si="4">D54-D57</f>
         <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="17">
-        <f>K54-K57</f>
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <f>L54-L57</f>
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <f>M54-M57</f>
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <f>N54-N57</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="17">
+        <f>G54-G57</f>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f>H54-H57</f>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f>I54-I57</f>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f>J54-J57</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:X54">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:T54">
     <sortCondition ref="A5:A54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5482,13 +2870,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5499,10 +2887,10 @@
     <col min="6" max="6" width="10.83203125" style="27"/>
     <col min="7" max="7" width="10.83203125" style="3"/>
     <col min="8" max="8" width="10.83203125" style="17"/>
-    <col min="11" max="11" width="62.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="64.33203125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>19</v>
@@ -5521,7 +2909,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5556,7 +2944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5588,8 +2976,12 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="str">
+        <f>IF(AND(SUM(H3:J3)=0,G3&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5621,8 +3013,12 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L67" si="2">IF(AND(SUM(H4:J4)=0,G4&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -5654,8 +3050,12 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -5687,8 +3087,12 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -5720,8 +3124,12 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -5738,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" ref="F8" si="2">G8-SUM(D8:E8)</f>
+        <f t="shared" ref="F8" si="3">G8-SUM(D8:E8)</f>
         <v>41066</v>
       </c>
       <c r="G8" s="3">
@@ -5753,8 +3161,12 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -5786,8 +3198,12 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -5819,8 +3235,12 @@
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -5852,8 +3272,12 @@
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -5885,8 +3309,12 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -5918,8 +3346,12 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -5951,8 +3383,12 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -5984,8 +3420,12 @@
       <c r="J15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -6017,8 +3457,12 @@
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L16" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -6053,8 +3497,12 @@
       <c r="K17" s="17" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L17" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -6086,8 +3534,12 @@
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L18" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -6119,8 +3571,12 @@
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L19" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -6152,8 +3608,12 @@
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L20" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -6185,8 +3645,12 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L21" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -6218,8 +3682,12 @@
       <c r="J22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L22" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -6251,8 +3719,12 @@
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L23" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -6287,8 +3759,12 @@
       <c r="K24" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L24" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>36</v>
       </c>
@@ -6314,8 +3790,19 @@
       <c r="K25" s="25" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L25" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -6347,8 +3834,12 @@
       <c r="J26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L26" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
         <v>36</v>
       </c>
@@ -6374,8 +3865,19 @@
       <c r="K27" s="25" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L27" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+    </row>
+    <row r="28" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -6410,11 +3912,19 @@
       <c r="K28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L28"/>
+      <c r="L28" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
       <c r="M28"/>
       <c r="N28"/>
-    </row>
-    <row r="29" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+    </row>
+    <row r="29" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>36</v>
       </c>
@@ -6440,8 +3950,19 @@
       <c r="K29" s="25" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L29" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+    </row>
+    <row r="30" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
         <v>36</v>
       </c>
@@ -6467,8 +3988,19 @@
       <c r="K30" s="25" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L30" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -6500,8 +4032,12 @@
       <c r="J31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L31" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -6533,8 +4069,12 @@
       <c r="J32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L32" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -6566,8 +4106,12 @@
       <c r="J33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L33" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -6584,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" ref="F34:F37" si="3">G34-SUM(D34:E34)</f>
+        <f t="shared" ref="F34:F37" si="4">G34-SUM(D34:E34)</f>
         <v>119</v>
       </c>
       <c r="G34" s="3">
@@ -6599,8 +4143,12 @@
       <c r="J34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L34" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -6617,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G35" s="3">
@@ -6632,8 +4180,12 @@
       <c r="J35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L35" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -6650,7 +4202,7 @@
         <v>159445</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G36" s="3">
@@ -6665,8 +4217,12 @@
       <c r="J36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L36" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -6683,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G37" s="3">
@@ -6698,8 +4254,12 @@
       <c r="J37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L37" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -6731,8 +4291,12 @@
       <c r="J38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L38" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -6764,8 +4328,12 @@
       <c r="J39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L39" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -6797,11 +4365,19 @@
       <c r="J40">
         <v>0</v>
       </c>
-      <c r="L40"/>
+      <c r="L40" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
       <c r="M40"/>
       <c r="N40"/>
-    </row>
-    <row r="41" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+    </row>
+    <row r="41" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -6833,11 +4409,19 @@
       <c r="J41">
         <v>0</v>
       </c>
-      <c r="L41"/>
+      <c r="L41" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
       <c r="M41"/>
       <c r="N41"/>
-    </row>
-    <row r="42" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+    </row>
+    <row r="42" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -6869,11 +4453,19 @@
       <c r="J42">
         <v>0</v>
       </c>
-      <c r="L42"/>
+      <c r="L42" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
       <c r="M42"/>
       <c r="N42"/>
-    </row>
-    <row r="43" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+    </row>
+    <row r="43" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -6905,11 +4497,19 @@
       <c r="J43">
         <v>0</v>
       </c>
-      <c r="L43"/>
+      <c r="L43" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
       <c r="M43"/>
       <c r="N43"/>
-    </row>
-    <row r="44" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+    </row>
+    <row r="44" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -6941,11 +4541,19 @@
       <c r="J44">
         <v>0</v>
       </c>
-      <c r="L44"/>
+      <c r="L44" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
       <c r="M44"/>
       <c r="N44"/>
-    </row>
-    <row r="45" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+    </row>
+    <row r="45" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -6977,11 +4585,19 @@
       <c r="J45">
         <v>0</v>
       </c>
-      <c r="L45"/>
+      <c r="L45" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
       <c r="M45"/>
       <c r="N45"/>
-    </row>
-    <row r="46" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+    </row>
+    <row r="46" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -7013,11 +4629,19 @@
       <c r="J46">
         <v>0</v>
       </c>
-      <c r="L46"/>
+      <c r="L46" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
       <c r="M46"/>
       <c r="N46"/>
-    </row>
-    <row r="47" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+    </row>
+    <row r="47" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -7049,11 +4673,19 @@
       <c r="J47">
         <v>0</v>
       </c>
-      <c r="L47"/>
+      <c r="L47" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
       <c r="M47"/>
       <c r="N47"/>
-    </row>
-    <row r="48" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+    </row>
+    <row r="48" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -7085,11 +4717,19 @@
       <c r="J48">
         <v>0</v>
       </c>
-      <c r="L48"/>
+      <c r="L48" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
       <c r="M48"/>
       <c r="N48"/>
-    </row>
-    <row r="49" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+    </row>
+    <row r="49" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -7121,11 +4761,19 @@
       <c r="J49">
         <v>0</v>
       </c>
-      <c r="L49"/>
+      <c r="L49" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
       <c r="M49"/>
       <c r="N49"/>
-    </row>
-    <row r="50" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+    </row>
+    <row r="50" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -7157,11 +4805,19 @@
       <c r="J50">
         <v>0</v>
       </c>
-      <c r="L50"/>
+      <c r="L50" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
       <c r="M50"/>
       <c r="N50"/>
-    </row>
-    <row r="51" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+    </row>
+    <row r="51" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -7193,11 +4849,19 @@
       <c r="J51">
         <v>0</v>
       </c>
-      <c r="L51"/>
+      <c r="L51" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
       <c r="M51"/>
       <c r="N51"/>
-    </row>
-    <row r="52" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+    </row>
+    <row r="52" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -7229,11 +4893,19 @@
       <c r="J52">
         <v>0</v>
       </c>
-      <c r="L52"/>
+      <c r="L52" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
       <c r="M52"/>
       <c r="N52"/>
-    </row>
-    <row r="53" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+    </row>
+    <row r="53" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -7250,7 +4922,7 @@
         <v>182100</v>
       </c>
       <c r="F53" s="6">
-        <f t="shared" ref="F53:F55" si="4">G53-SUM(D53:E53)</f>
+        <f t="shared" ref="F53:F55" si="5">G53-SUM(D53:E53)</f>
         <v>74386</v>
       </c>
       <c r="G53" s="3">
@@ -7265,11 +4937,19 @@
       <c r="J53">
         <v>0</v>
       </c>
-      <c r="L53"/>
+      <c r="L53" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
       <c r="M53"/>
       <c r="N53"/>
-    </row>
-    <row r="54" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+    </row>
+    <row r="54" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -7286,7 +4966,7 @@
         <v>142133</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33944</v>
       </c>
       <c r="G54" s="3">
@@ -7301,11 +4981,19 @@
       <c r="J54">
         <v>0</v>
       </c>
-      <c r="L54"/>
+      <c r="L54" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
       <c r="M54"/>
       <c r="N54"/>
-    </row>
-    <row r="55" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+    </row>
+    <row r="55" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -7322,7 +5010,7 @@
         <v>200644</v>
       </c>
       <c r="F55" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61137</v>
       </c>
       <c r="G55" s="3">
@@ -7337,11 +5025,19 @@
       <c r="J55">
         <v>0</v>
       </c>
-      <c r="L55"/>
+      <c r="L55" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
       <c r="M55"/>
       <c r="N55"/>
-    </row>
-    <row r="56" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+    </row>
+    <row r="56" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -7373,11 +5069,19 @@
       <c r="J56">
         <v>0</v>
       </c>
-      <c r="L56"/>
+      <c r="L56" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
       <c r="M56"/>
       <c r="N56"/>
-    </row>
-    <row r="57" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+    </row>
+    <row r="57" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -7409,11 +5113,19 @@
       <c r="J57">
         <v>0</v>
       </c>
-      <c r="L57"/>
+      <c r="L57" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
       <c r="M57"/>
       <c r="N57"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -7445,8 +5157,12 @@
       <c r="J58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L58" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -7478,8 +5194,12 @@
       <c r="J59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L59" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -7511,8 +5231,12 @@
       <c r="J60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L60" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -7544,8 +5268,12 @@
       <c r="J61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L61" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -7577,8 +5305,12 @@
       <c r="J62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L62" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -7610,8 +5342,12 @@
       <c r="J63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L63" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -7643,8 +5379,12 @@
       <c r="J64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L64" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -7676,8 +5416,12 @@
       <c r="J65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -7694,7 +5438,7 @@
         <v>75712</v>
       </c>
       <c r="F66" s="6">
-        <f t="shared" ref="F66:F75" si="5">G66-SUM(D66:E66)</f>
+        <f t="shared" ref="F66:F75" si="6">G66-SUM(D66:E66)</f>
         <v>18688</v>
       </c>
       <c r="G66" s="3">
@@ -7709,8 +5453,12 @@
       <c r="J66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L66" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -7727,7 +5475,7 @@
         <v>49227</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28079</v>
       </c>
       <c r="G67" s="3">
@@ -7742,8 +5490,12 @@
       <c r="J67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L67" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -7760,7 +5512,7 @@
         <v>70469</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24644</v>
       </c>
       <c r="G68" s="3">
@@ -7775,8 +5527,12 @@
       <c r="J68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L68" t="str">
+        <f t="shared" ref="L68:L109" si="7">IF(AND(SUM(H68:J68)=0,G68&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -7793,7 +5549,7 @@
         <v>70997</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30609</v>
       </c>
       <c r="G69" s="3">
@@ -7808,8 +5564,12 @@
       <c r="J69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L69" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -7826,7 +5586,7 @@
         <v>73945</v>
       </c>
       <c r="F70" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39281</v>
       </c>
       <c r="G70" s="3">
@@ -7841,8 +5601,12 @@
       <c r="J70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L70" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -7859,7 +5623,7 @@
         <v>63437</v>
       </c>
       <c r="F71" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28397</v>
       </c>
       <c r="G71" s="3">
@@ -7874,8 +5638,12 @@
       <c r="J71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L71" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -7892,7 +5660,7 @@
         <v>45370</v>
       </c>
       <c r="F72" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22002</v>
       </c>
       <c r="G72" s="3">
@@ -7907,8 +5675,12 @@
       <c r="J72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L72" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -7925,7 +5697,7 @@
         <v>53128</v>
       </c>
       <c r="F73" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8140</v>
       </c>
       <c r="G73" s="3">
@@ -7940,8 +5712,12 @@
       <c r="J73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L73" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -7958,7 +5734,7 @@
         <v>90088</v>
       </c>
       <c r="F74" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>48567</v>
       </c>
       <c r="G74" s="3">
@@ -7973,8 +5749,12 @@
       <c r="J74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L74" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -7991,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61798</v>
       </c>
       <c r="G75" s="3">
@@ -8006,8 +5786,12 @@
       <c r="J75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L75" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -8039,8 +5823,12 @@
       <c r="J76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L76" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -8072,8 +5860,12 @@
       <c r="J77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L77" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -8105,8 +5897,12 @@
       <c r="J78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L78" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
         <v>83</v>
       </c>
@@ -8132,8 +5928,19 @@
       <c r="K79" s="25" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L79" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -8165,8 +5972,12 @@
       <c r="J80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L80" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -8183,7 +5994,7 @@
         <v>148351</v>
       </c>
       <c r="F81" s="6">
-        <f t="shared" ref="F81:F109" si="6">G81-SUM(D81:E81)</f>
+        <f t="shared" ref="F81:F109" si="8">G81-SUM(D81:E81)</f>
         <v>0</v>
       </c>
       <c r="G81" s="3">
@@ -8198,11 +6009,19 @@
       <c r="J81">
         <v>0</v>
       </c>
-      <c r="L81"/>
+      <c r="L81" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M81"/>
       <c r="N81"/>
-    </row>
-    <row r="82" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+    </row>
+    <row r="82" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -8219,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="6">
-        <f t="shared" ref="F82" si="7">G82-SUM(D82:E82)</f>
+        <f t="shared" ref="F82" si="9">G82-SUM(D82:E82)</f>
         <v>0</v>
       </c>
       <c r="G82" s="3">
@@ -8234,11 +6053,19 @@
       <c r="J82">
         <v>0</v>
       </c>
-      <c r="L82"/>
+      <c r="L82" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M82"/>
       <c r="N82"/>
-    </row>
-    <row r="83" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+    </row>
+    <row r="83" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -8255,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G83" s="3">
@@ -8270,11 +6097,19 @@
       <c r="J83">
         <v>0</v>
       </c>
-      <c r="L83"/>
+      <c r="L83" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M83"/>
       <c r="N83"/>
-    </row>
-    <row r="84" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+    </row>
+    <row r="84" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -8291,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8423</v>
       </c>
       <c r="G84" s="3">
@@ -8306,11 +6141,19 @@
       <c r="J84">
         <v>0</v>
       </c>
-      <c r="L84"/>
+      <c r="L84" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M84"/>
       <c r="N84"/>
-    </row>
-    <row r="85" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+    </row>
+    <row r="85" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -8327,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>22597</v>
       </c>
       <c r="G85" s="3">
@@ -8342,11 +6185,19 @@
       <c r="J85">
         <v>0</v>
       </c>
-      <c r="L85"/>
+      <c r="L85" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M85"/>
       <c r="N85"/>
-    </row>
-    <row r="86" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+    </row>
+    <row r="86" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -8363,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G86" s="3">
@@ -8378,11 +6229,19 @@
       <c r="J86">
         <v>0</v>
       </c>
-      <c r="L86"/>
+      <c r="L86" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M86"/>
       <c r="N86"/>
-    </row>
-    <row r="87" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+    </row>
+    <row r="87" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>94</v>
       </c>
@@ -8399,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>23937</v>
       </c>
       <c r="G87" s="3">
@@ -8414,11 +6273,19 @@
       <c r="J87">
         <v>0</v>
       </c>
-      <c r="L87"/>
+      <c r="L87" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M87"/>
       <c r="N87"/>
-    </row>
-    <row r="88" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+    </row>
+    <row r="88" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -8435,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1681</v>
       </c>
       <c r="G88" s="3">
@@ -8450,11 +6317,19 @@
       <c r="J88">
         <v>0</v>
       </c>
-      <c r="L88"/>
+      <c r="L88" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M88"/>
       <c r="N88"/>
-    </row>
-    <row r="89" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+    </row>
+    <row r="89" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>96</v>
       </c>
@@ -8471,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G89" s="3">
@@ -8486,11 +6361,19 @@
       <c r="J89">
         <v>0</v>
       </c>
-      <c r="L89"/>
+      <c r="L89" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M89"/>
       <c r="N89"/>
-    </row>
-    <row r="90" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+      <c r="S89"/>
+    </row>
+    <row r="90" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -8507,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15264</v>
       </c>
       <c r="G90" s="3">
@@ -8522,11 +6405,19 @@
       <c r="J90">
         <v>0</v>
       </c>
-      <c r="L90"/>
+      <c r="L90" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M90"/>
       <c r="N90"/>
-    </row>
-    <row r="91" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90"/>
+      <c r="S90"/>
+    </row>
+    <row r="91" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -8543,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14947</v>
       </c>
       <c r="G91" s="3">
@@ -8558,11 +6449,19 @@
       <c r="J91">
         <v>0</v>
       </c>
-      <c r="L91"/>
+      <c r="L91" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M91"/>
       <c r="N91"/>
-    </row>
-    <row r="92" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91"/>
+      <c r="S91"/>
+    </row>
+    <row r="92" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -8579,7 +6478,7 @@
         <v>78109</v>
       </c>
       <c r="F92" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7894</v>
       </c>
       <c r="G92" s="3">
@@ -8594,11 +6493,19 @@
       <c r="J92">
         <v>0</v>
       </c>
-      <c r="L92"/>
+      <c r="L92" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M92"/>
       <c r="N92"/>
-    </row>
-    <row r="93" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+    </row>
+    <row r="93" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -8615,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="6">
-        <f t="shared" ref="F93:F100" si="8">G93-SUM(D93:E93)</f>
+        <f t="shared" ref="F93:F100" si="10">G93-SUM(D93:E93)</f>
         <v>11635</v>
       </c>
       <c r="G93" s="3">
@@ -8630,11 +6537,19 @@
       <c r="J93">
         <v>0</v>
       </c>
-      <c r="L93"/>
+      <c r="L93" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M93"/>
       <c r="N93"/>
-    </row>
-    <row r="94" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
+    </row>
+    <row r="94" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -8651,7 +6566,7 @@
         <v>66554</v>
       </c>
       <c r="F94" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>21410</v>
       </c>
       <c r="G94" s="3">
@@ -8666,11 +6581,19 @@
       <c r="J94">
         <v>0</v>
       </c>
-      <c r="L94"/>
+      <c r="L94" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M94"/>
       <c r="N94"/>
-    </row>
-    <row r="95" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+    </row>
+    <row r="95" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -8687,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="F95" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>53336</v>
       </c>
       <c r="G95" s="3">
@@ -8702,11 +6625,19 @@
       <c r="J95">
         <v>0</v>
       </c>
-      <c r="L95"/>
+      <c r="L95" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M95"/>
       <c r="N95"/>
-    </row>
-    <row r="96" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+      <c r="S95"/>
+    </row>
+    <row r="96" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -8723,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24526</v>
       </c>
       <c r="G96" s="3">
@@ -8738,11 +6669,19 @@
       <c r="J96">
         <v>0</v>
       </c>
-      <c r="L96"/>
+      <c r="L96" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M96"/>
       <c r="N96"/>
-    </row>
-    <row r="97" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
+      <c r="R96"/>
+      <c r="S96"/>
+    </row>
+    <row r="97" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -8759,7 +6698,7 @@
         <v>62508</v>
       </c>
       <c r="F97" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13628</v>
       </c>
       <c r="G97" s="3">
@@ -8774,11 +6713,19 @@
       <c r="J97">
         <v>0</v>
       </c>
-      <c r="L97"/>
+      <c r="L97" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M97"/>
       <c r="N97"/>
-    </row>
-    <row r="98" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+      <c r="S97"/>
+    </row>
+    <row r="98" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -8795,7 +6742,7 @@
         <v>41321</v>
       </c>
       <c r="F98" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4822</v>
       </c>
       <c r="G98" s="3">
@@ -8810,11 +6757,19 @@
       <c r="J98">
         <v>0</v>
       </c>
-      <c r="L98"/>
+      <c r="L98" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M98"/>
       <c r="N98"/>
-    </row>
-    <row r="99" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
+      <c r="S98"/>
+    </row>
+    <row r="99" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -8831,7 +6786,7 @@
         <v>93041</v>
       </c>
       <c r="F99" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12752</v>
       </c>
       <c r="G99" s="3">
@@ -8846,11 +6801,19 @@
       <c r="J99">
         <v>0</v>
       </c>
-      <c r="L99"/>
+      <c r="L99" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M99"/>
       <c r="N99"/>
-    </row>
-    <row r="100" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99"/>
+      <c r="R99"/>
+      <c r="S99"/>
+    </row>
+    <row r="100" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -8867,7 +6830,7 @@
         <v>43769</v>
       </c>
       <c r="F100" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6823</v>
       </c>
       <c r="G100" s="3">
@@ -8882,11 +6845,19 @@
       <c r="J100">
         <v>0</v>
       </c>
-      <c r="L100"/>
+      <c r="L100" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M100"/>
       <c r="N100"/>
-    </row>
-    <row r="101" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100"/>
+      <c r="S100"/>
+    </row>
+    <row r="101" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -8903,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="F101" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G101" s="3">
@@ -8918,11 +6889,19 @@
       <c r="J101">
         <v>0</v>
       </c>
-      <c r="L101"/>
+      <c r="L101" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M101"/>
       <c r="N101"/>
-    </row>
-    <row r="102" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+      <c r="S101"/>
+    </row>
+    <row r="102" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -8939,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G102" s="3">
@@ -8954,11 +6933,19 @@
       <c r="J102">
         <v>0</v>
       </c>
-      <c r="L102"/>
+      <c r="L102" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M102"/>
       <c r="N102"/>
-    </row>
-    <row r="103" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
+      <c r="R102"/>
+      <c r="S102"/>
+    </row>
+    <row r="103" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -8975,7 +6962,7 @@
         <v>139197</v>
       </c>
       <c r="F103" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8205</v>
       </c>
       <c r="G103" s="3">
@@ -8990,11 +6977,19 @@
       <c r="J103">
         <v>0</v>
       </c>
-      <c r="L103"/>
+      <c r="L103" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M103"/>
       <c r="N103"/>
-    </row>
-    <row r="104" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O103"/>
+      <c r="P103"/>
+      <c r="Q103"/>
+      <c r="R103"/>
+      <c r="S103"/>
+    </row>
+    <row r="104" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -9011,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="F104" s="6">
-        <f t="shared" ref="F104:F105" si="9">G104-SUM(D104:E104)</f>
+        <f t="shared" ref="F104:F105" si="11">G104-SUM(D104:E104)</f>
         <v>109453</v>
       </c>
       <c r="G104" s="3">
@@ -9026,11 +7021,19 @@
       <c r="J104">
         <v>0</v>
       </c>
-      <c r="L104"/>
+      <c r="L104" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M104"/>
       <c r="N104"/>
-    </row>
-    <row r="105" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
+      <c r="R104"/>
+      <c r="S104"/>
+    </row>
+    <row r="105" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>101</v>
       </c>
@@ -9047,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="F105" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>45350</v>
       </c>
       <c r="G105" s="3">
@@ -9062,11 +7065,19 @@
       <c r="J105">
         <v>0</v>
       </c>
-      <c r="L105"/>
+      <c r="L105" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M105"/>
       <c r="N105"/>
-    </row>
-    <row r="106" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
+      <c r="R105"/>
+      <c r="S105"/>
+    </row>
+    <row r="106" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>102</v>
       </c>
@@ -9083,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G106" s="3">
@@ -9098,11 +7109,19 @@
       <c r="J106">
         <v>0</v>
       </c>
-      <c r="L106"/>
+      <c r="L106" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M106"/>
       <c r="N106"/>
-    </row>
-    <row r="107" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O106"/>
+      <c r="P106"/>
+      <c r="Q106"/>
+      <c r="R106"/>
+      <c r="S106"/>
+    </row>
+    <row r="107" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -9119,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="F107" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G107" s="3">
@@ -9134,11 +7153,19 @@
       <c r="J107">
         <v>0</v>
       </c>
-      <c r="L107"/>
+      <c r="L107" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
       <c r="M107"/>
       <c r="N107"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
+      <c r="R107"/>
+      <c r="S107"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -9155,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G108" s="3">
@@ -9170,8 +7197,12 @@
       <c r="J108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L108" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -9188,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="F109" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G109" s="3">
@@ -9203,45 +7234,54 @@
       <c r="J109">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L109" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="16">
-        <f t="shared" ref="D111:J111" si="10">SUM(D3:D109)</f>
+        <f t="shared" ref="D111:J111" si="12">SUM(D3:D109)</f>
         <v>4326242</v>
       </c>
       <c r="E111" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4257267</v>
       </c>
       <c r="F111" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1662207</v>
       </c>
       <c r="G111" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10245716</v>
       </c>
       <c r="H111" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="I111" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>41</v>
       </c>
       <c r="J111" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K111" s="18"/>
       <c r="L111"/>
       <c r="M111"/>
       <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
+      <c r="S111"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C113" s="26"/>
@@ -9257,907 +7297,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:E54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3">
-        <v>425625</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>242230</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3">
-        <v>190935</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1261975</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3">
-        <v>604799</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1057739</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="3">
-        <v>790726</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1412529</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="3">
-        <v>148646</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1016152</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="3">
-        <v>173668</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="3">
-        <v>143959</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3">
-        <v>276636</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="3">
-        <v>276864</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="3">
-        <v>139470</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1377116</v>
-      </c>
-      <c r="D46">
-        <v>7</v>
-      </c>
-      <c r="E46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="3">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="3">
-        <v>553568</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="3">
-        <v>153079</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="3">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="3">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>158</v>
-      </c>
-      <c r="C54" s="3">
-        <v>10245716</v>
-      </c>
-      <c r="D54">
-        <v>35</v>
-      </c>
-      <c r="E54">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47D6EE2-8F13-E84C-8564-9AD870B71BAB}">
   <dimension ref="A1:J51"/>
   <sheetViews>
@@ -10172,34 +7311,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -11807,11 +8946,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02518F22-9245-5648-90CA-A78DFFC4616E}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -11822,34 +8961,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
